--- a/ReceivedClaims/testfile.xlsx
+++ b/ReceivedClaims/testfile.xlsx
@@ -8,14 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\21891\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{145AF6E6-B1AF-4855-9239-515D013486B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36609C6F-23ED-4AEC-A017-8420DCC78000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,34 +25,280 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="7">
-  <si>
-    <t>Id</t>
-  </si>
-  <si>
-    <t>Notes</t>
-  </si>
-  <si>
-    <t>dfwefw</t>
-  </si>
-  <si>
-    <t>sdfsdf</t>
-  </si>
-  <si>
-    <t>nu</t>
-  </si>
-  <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>2000-12-30T00:00:00</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="89">
+  <si>
+    <t>Devise_Contrat</t>
+  </si>
+  <si>
+    <t>Date_Cloture</t>
+  </si>
+  <si>
+    <t>Code_Tiers</t>
+  </si>
+  <si>
+    <t>Nom1</t>
+  </si>
+  <si>
+    <t>Nom2</t>
+  </si>
+  <si>
+    <t>Num_Sinistre</t>
+  </si>
+  <si>
+    <t>AD_NUM_SS</t>
+  </si>
+  <si>
+    <t>patient name</t>
+  </si>
+  <si>
+    <t>Date_Soins</t>
+  </si>
+  <si>
+    <t>Libelle_Acte</t>
+  </si>
+  <si>
+    <t>AMOUNT CLAIMED IN LYD</t>
+  </si>
+  <si>
+    <t>AMOUNT PAID IN LYD</t>
+  </si>
+  <si>
+    <t>Commentaire_Dcpt</t>
+  </si>
+  <si>
+    <t>Nom_Appel_Client</t>
+  </si>
+  <si>
+    <t>MSLYD</t>
+  </si>
+  <si>
+    <t>E67042</t>
+  </si>
+  <si>
+    <t>AL DESTA  PVT CLINIC</t>
+  </si>
+  <si>
+    <t>LY180107347</t>
+  </si>
+  <si>
+    <t>LIC2111</t>
+  </si>
+  <si>
+    <t>ADEL IBRAHEM</t>
+  </si>
+  <si>
+    <t>Other specialist</t>
+  </si>
+  <si>
+    <t>July 2018-001</t>
+  </si>
+  <si>
+    <t>LIC</t>
+  </si>
+  <si>
+    <t>Lab tests</t>
+  </si>
+  <si>
+    <t>Nursing services</t>
+  </si>
+  <si>
+    <t>E36773</t>
+  </si>
+  <si>
+    <t>BEN FAKER CLINIC</t>
+  </si>
+  <si>
+    <t>LY180107359</t>
+  </si>
+  <si>
+    <t>ZW1183</t>
+  </si>
+  <si>
+    <t>ALI AHMED</t>
+  </si>
+  <si>
+    <t>Consultation for chronic disease</t>
+  </si>
+  <si>
+    <t>Sep 2018-413</t>
+  </si>
+  <si>
+    <t>AZZAWYA OIL COMPANY</t>
+  </si>
+  <si>
+    <t>Pharmacy for chronic disease</t>
+  </si>
+  <si>
+    <t>LY180107372</t>
+  </si>
+  <si>
+    <t>ZW10455</t>
+  </si>
+  <si>
+    <t>FATMA FARJ</t>
+  </si>
+  <si>
+    <t>Sep 2018-401</t>
+  </si>
+  <si>
+    <t>LY180107385</t>
+  </si>
+  <si>
+    <t>ZW14064</t>
+  </si>
+  <si>
+    <t>RGD ABOALKASAM</t>
+  </si>
+  <si>
+    <t>Sep 2018-391</t>
+  </si>
+  <si>
+    <t>Assureur</t>
+  </si>
+  <si>
+    <t>POLICY</t>
+  </si>
+  <si>
+    <t>ID LIGNE</t>
+  </si>
+  <si>
+    <t>OP-PHARM-OTHER</t>
+  </si>
+  <si>
+    <t>XA01</t>
+  </si>
+  <si>
+    <t>LIC/PLUS/2018</t>
+  </si>
+  <si>
+    <t>OP</t>
+  </si>
+  <si>
+    <t>OTHER</t>
+  </si>
+  <si>
+    <t>LIC/AZZAWYA/2018</t>
+  </si>
+  <si>
+    <t>PHARM</t>
+  </si>
+  <si>
+    <t>LIC/MABRUK/2018</t>
+  </si>
+  <si>
+    <t>E34640</t>
+  </si>
+  <si>
+    <t>EL SAKER CLINIC</t>
+  </si>
+  <si>
+    <t>LY1850723</t>
+  </si>
+  <si>
+    <t>APS0035</t>
+  </si>
+  <si>
+    <t>ZAINEB EL.ASHTIR</t>
+  </si>
+  <si>
+    <t>Delivery - hospital fees</t>
+  </si>
+  <si>
+    <t>Aug 2018-007</t>
+  </si>
+  <si>
+    <t>LY180111126</t>
+  </si>
+  <si>
+    <t>LIC1249</t>
+  </si>
+  <si>
+    <t>AHMED ISAA</t>
+  </si>
+  <si>
+    <t>Dermatologist</t>
+  </si>
+  <si>
+    <t>Aug 2018-011</t>
+  </si>
+  <si>
+    <t>LY180111137</t>
+  </si>
+  <si>
+    <t>LIC1332</t>
+  </si>
+  <si>
+    <t>REAM ALI</t>
+  </si>
+  <si>
+    <t>Prenatal consultation</t>
+  </si>
+  <si>
+    <t>Aug 2018-022</t>
+  </si>
+  <si>
+    <t>Prenatal ultrasound</t>
+  </si>
+  <si>
+    <t>LY180111140</t>
+  </si>
+  <si>
+    <t>LIC1220</t>
+  </si>
+  <si>
+    <t>SOHEAR IBRAHEM</t>
+  </si>
+  <si>
+    <t>Aug 2018-024</t>
+  </si>
+  <si>
+    <t>LY180111141</t>
+  </si>
+  <si>
+    <t>LIC1187</t>
+  </si>
+  <si>
+    <t>MOHAMED KHALIFA</t>
+  </si>
+  <si>
+    <t>Aug 2018-026</t>
+  </si>
+  <si>
+    <t>Medication</t>
+  </si>
+  <si>
+    <t>LY180111143</t>
+  </si>
+  <si>
+    <t>LIC1860</t>
+  </si>
+  <si>
+    <t>MOFIDA DEYAB</t>
+  </si>
+  <si>
+    <t>Aug 2018-028</t>
+  </si>
+  <si>
+    <t>LY180111148</t>
+  </si>
+  <si>
+    <t>LIC1877</t>
+  </si>
+  <si>
+    <t>MAHMOUD MOHAMED</t>
+  </si>
+  <si>
+    <t>Paediatrician</t>
+  </si>
+  <si>
+    <t>Aug 2018-033</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -62,16 +306,43 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -79,13 +350,102 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -365,127 +725,1203 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26CF4E94-AAF3-4A25-861E-CE7A1847D913}">
+  <dimension ref="A42:R63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="3" max="3" width="9.875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="1">
-        <v>44845</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{626E14D6-4301-4DF5-9032-BC5CE248CB4C}">
-  <dimension ref="B4:C6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:C6"/>
+    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
+      <selection activeCell="G51" sqref="G51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B4" t="s">
+    <row r="42" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+      <c r="A42" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C4" t="s">
+      <c r="B42" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="C42" s="3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B6">
-        <v>2</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="D42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18AE5ED9-4E86-4F28-8D17-0432C0A963AC}">
-  <dimension ref="A1:B3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>3</v>
+      <c r="E42" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H42" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I42" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J42" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="K42" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="L42" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="M42" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="N42" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="O42" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="P42" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q42" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="R42" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A43" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B43" s="7">
+        <v>43467</v>
+      </c>
+      <c r="C43" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D43" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E43" s="8"/>
+      <c r="F43" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G43" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H43" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="I43" s="7">
+        <v>43282</v>
+      </c>
+      <c r="J43" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="K43" s="9">
+        <v>50</v>
+      </c>
+      <c r="L43" s="9">
+        <v>50</v>
+      </c>
+      <c r="M43" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="N43" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="O43" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="P43" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q43" s="8">
+        <v>50942259</v>
+      </c>
+      <c r="R43" s="8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A44" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B44" s="7">
+        <v>43467</v>
+      </c>
+      <c r="C44" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D44" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E44" s="8"/>
+      <c r="F44" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G44" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H44" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="I44" s="7">
+        <v>43282</v>
+      </c>
+      <c r="J44" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="K44" s="9">
+        <v>45</v>
+      </c>
+      <c r="L44" s="9">
+        <v>45</v>
+      </c>
+      <c r="M44" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="N44" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="O44" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="P44" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q44" s="8">
+        <v>50942260</v>
+      </c>
+      <c r="R44" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A45" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B45" s="7">
+        <v>43467</v>
+      </c>
+      <c r="C45" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D45" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E45" s="8"/>
+      <c r="F45" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G45" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H45" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="I45" s="7">
+        <v>43282</v>
+      </c>
+      <c r="J45" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="K45" s="9">
+        <v>65</v>
+      </c>
+      <c r="L45" s="9">
+        <v>65</v>
+      </c>
+      <c r="M45" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="N45" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="O45" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="P45" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q45" s="8">
+        <v>50942261</v>
+      </c>
+      <c r="R45" s="8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A46" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B46" s="7">
+        <v>43467</v>
+      </c>
+      <c r="C46" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D46" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E46" s="8"/>
+      <c r="F46" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G46" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H46" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="I46" s="7">
+        <v>43367</v>
+      </c>
+      <c r="J46" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="K46" s="9">
+        <v>40</v>
+      </c>
+      <c r="L46" s="9">
+        <v>36</v>
+      </c>
+      <c r="M46" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="N46" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="O46" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="P46" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q46" s="8">
+        <v>50943527</v>
+      </c>
+      <c r="R46" s="8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A47" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B47" s="7">
+        <v>43467</v>
+      </c>
+      <c r="C47" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D47" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E47" s="8"/>
+      <c r="F47" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G47" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H47" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="I47" s="7">
+        <v>43367</v>
+      </c>
+      <c r="J47" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="K47" s="9">
+        <v>180</v>
+      </c>
+      <c r="L47" s="9">
+        <v>135</v>
+      </c>
+      <c r="M47" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="N47" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="O47" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="P47" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q47" s="8">
+        <v>50943528</v>
+      </c>
+      <c r="R47" s="8" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="48" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A48" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B48" s="7">
+        <v>43467</v>
+      </c>
+      <c r="C48" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D48" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E48" s="8"/>
+      <c r="F48" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="G48" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="H48" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="I48" s="7">
+        <v>43368</v>
+      </c>
+      <c r="J48" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="K48" s="9">
+        <v>25</v>
+      </c>
+      <c r="L48" s="9">
+        <v>22.5</v>
+      </c>
+      <c r="M48" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="N48" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="O48" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="P48" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q48" s="8">
+        <v>50943748</v>
+      </c>
+      <c r="R48" s="8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="49" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A49" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B49" s="7">
+        <v>43467</v>
+      </c>
+      <c r="C49" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D49" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E49" s="8"/>
+      <c r="F49" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="G49" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="H49" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="I49" s="7">
+        <v>43368</v>
+      </c>
+      <c r="J49" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="K49" s="9">
+        <v>46</v>
+      </c>
+      <c r="L49" s="9">
+        <v>34.5</v>
+      </c>
+      <c r="M49" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="N49" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="O49" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="P49" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q49" s="8">
+        <v>50943749</v>
+      </c>
+      <c r="R49" s="8" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="50" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A50" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B50" s="7">
+        <v>43467</v>
+      </c>
+      <c r="C50" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D50" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E50" s="8"/>
+      <c r="F50" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="G50" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="H50" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="I50" s="7">
+        <v>43368</v>
+      </c>
+      <c r="J50" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="K50" s="9">
+        <v>25</v>
+      </c>
+      <c r="L50" s="9">
+        <v>22.5</v>
+      </c>
+      <c r="M50" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="N50" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="O50" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="P50" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q50" s="8">
+        <v>50944285</v>
+      </c>
+      <c r="R50" s="8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="51" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A51" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B51" s="7">
+        <v>43467</v>
+      </c>
+      <c r="C51" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D51" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E51" s="8"/>
+      <c r="F51" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="G51" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="H51" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="I51" s="7">
+        <v>43368</v>
+      </c>
+      <c r="J51" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="K51" s="9">
+        <v>55</v>
+      </c>
+      <c r="L51" s="9">
+        <v>49.5</v>
+      </c>
+      <c r="M51" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="N51" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="O51" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="P51" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q51" s="8">
+        <v>50944286</v>
+      </c>
+      <c r="R51" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="52" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A52" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B52" s="7">
+        <v>43467</v>
+      </c>
+      <c r="C52" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="D52" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="E52" s="8"/>
+      <c r="F52" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="G52" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="H52" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="I52" s="7">
+        <v>43324</v>
+      </c>
+      <c r="J52" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="K52" s="9">
+        <v>1400</v>
+      </c>
+      <c r="L52" s="9">
+        <v>1400</v>
+      </c>
+      <c r="M52" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="N52" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="O52" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="P52" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q52" s="8">
+        <v>51170967</v>
+      </c>
+      <c r="R52" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="53" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A53" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B53" s="7">
+        <v>43467</v>
+      </c>
+      <c r="C53" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="D53" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="E53" s="8"/>
+      <c r="F53" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="G53" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="H53" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="I53" s="7">
+        <v>43326</v>
+      </c>
+      <c r="J53" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="K53" s="9">
+        <v>40</v>
+      </c>
+      <c r="L53" s="9">
+        <v>40</v>
+      </c>
+      <c r="M53" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="N53" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="O53" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="P53" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q53" s="8">
+        <v>51171070</v>
+      </c>
+      <c r="R53" s="8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="54" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A54" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B54" s="7">
+        <v>43467</v>
+      </c>
+      <c r="C54" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="D54" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="E54" s="8"/>
+      <c r="F54" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="G54" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="H54" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="I54" s="7">
+        <v>43327</v>
+      </c>
+      <c r="J54" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="K54" s="9">
+        <v>40</v>
+      </c>
+      <c r="L54" s="9">
+        <v>40</v>
+      </c>
+      <c r="M54" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="N54" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="O54" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="P54" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q54" s="8">
+        <v>51171269</v>
+      </c>
+      <c r="R54" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="55" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A55" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B55" s="7">
+        <v>43467</v>
+      </c>
+      <c r="C55" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="D55" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="E55" s="8"/>
+      <c r="F55" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="G55" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="H55" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="I55" s="7">
+        <v>43327</v>
+      </c>
+      <c r="J55" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="K55" s="9">
+        <v>40</v>
+      </c>
+      <c r="L55" s="9">
+        <v>40</v>
+      </c>
+      <c r="M55" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="N55" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="O55" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="P55" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q55" s="8">
+        <v>51171270</v>
+      </c>
+      <c r="R55" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="56" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A56" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B56" s="7">
+        <v>43467</v>
+      </c>
+      <c r="C56" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="D56" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="E56" s="8"/>
+      <c r="F56" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="G56" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="H56" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="I56" s="7">
+        <v>43327</v>
+      </c>
+      <c r="J56" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="K56" s="9">
+        <v>40</v>
+      </c>
+      <c r="L56" s="9">
+        <v>40</v>
+      </c>
+      <c r="M56" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="N56" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="O56" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="P56" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q56" s="8">
+        <v>51171295</v>
+      </c>
+      <c r="R56" s="8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="57" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A57" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B57" s="7">
+        <v>43467</v>
+      </c>
+      <c r="C57" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="D57" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="E57" s="8"/>
+      <c r="F57" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="G57" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="H57" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="I57" s="7">
+        <v>43327</v>
+      </c>
+      <c r="J57" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="K57" s="9">
+        <v>40</v>
+      </c>
+      <c r="L57" s="9">
+        <v>40</v>
+      </c>
+      <c r="M57" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="N57" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="O57" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="P57" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q57" s="8">
+        <v>51171312</v>
+      </c>
+      <c r="R57" s="8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="58" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A58" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B58" s="7">
+        <v>43467</v>
+      </c>
+      <c r="C58" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="D58" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="E58" s="8"/>
+      <c r="F58" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="G58" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="H58" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="I58" s="7">
+        <v>43327</v>
+      </c>
+      <c r="J58" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="K58" s="9">
+        <v>20.25</v>
+      </c>
+      <c r="L58" s="9">
+        <v>20.25</v>
+      </c>
+      <c r="M58" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="N58" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="O58" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="P58" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q58" s="8">
+        <v>51171313</v>
+      </c>
+      <c r="R58" s="8" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="59" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A59" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B59" s="7">
+        <v>43467</v>
+      </c>
+      <c r="C59" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="D59" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="E59" s="8"/>
+      <c r="F59" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="G59" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="H59" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="I59" s="7">
+        <v>43328</v>
+      </c>
+      <c r="J59" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="K59" s="9">
+        <v>40</v>
+      </c>
+      <c r="L59" s="9">
+        <v>40</v>
+      </c>
+      <c r="M59" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="N59" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="O59" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="P59" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q59" s="8">
+        <v>51171389</v>
+      </c>
+      <c r="R59" s="8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="60" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A60" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B60" s="7">
+        <v>43467</v>
+      </c>
+      <c r="C60" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="D60" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="E60" s="8"/>
+      <c r="F60" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="G60" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="H60" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="I60" s="7">
+        <v>43328</v>
+      </c>
+      <c r="J60" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="K60" s="9">
+        <v>54</v>
+      </c>
+      <c r="L60" s="9">
+        <v>54</v>
+      </c>
+      <c r="M60" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="N60" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="O60" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="P60" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q60" s="8">
+        <v>51171390</v>
+      </c>
+      <c r="R60" s="8" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="61" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A61" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B61" s="7">
+        <v>43467</v>
+      </c>
+      <c r="C61" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="D61" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="E61" s="8"/>
+      <c r="F61" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="G61" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="H61" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="I61" s="7">
+        <v>43313</v>
+      </c>
+      <c r="J61" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="K61" s="9">
+        <v>40</v>
+      </c>
+      <c r="L61" s="9">
+        <v>40</v>
+      </c>
+      <c r="M61" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="N61" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="O61" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="P61" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q61" s="8">
+        <v>51171480</v>
+      </c>
+      <c r="R61" s="8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="62" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A62" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B62" s="7">
+        <v>43467</v>
+      </c>
+      <c r="C62" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="D62" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="E62" s="8"/>
+      <c r="F62" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="G62" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="H62" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="I62" s="7">
+        <v>43313</v>
+      </c>
+      <c r="J62" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="K62" s="9">
+        <v>50</v>
+      </c>
+      <c r="L62" s="9">
+        <v>50</v>
+      </c>
+      <c r="M62" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="N62" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="O62" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="P62" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q62" s="8">
+        <v>51171481</v>
+      </c>
+      <c r="R62" s="8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="63" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A63" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B63" s="7">
+        <v>43467</v>
+      </c>
+      <c r="C63" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="D63" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="E63" s="8"/>
+      <c r="F63" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="G63" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="H63" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="I63" s="7">
+        <v>43313</v>
+      </c>
+      <c r="J63" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="K63" s="9">
+        <v>108</v>
+      </c>
+      <c r="L63" s="9">
+        <v>108</v>
+      </c>
+      <c r="M63" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="N63" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="O63" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="P63" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q63" s="8">
+        <v>51171482</v>
+      </c>
+      <c r="R63" s="8" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>
